--- a/static/Holding_Breakup/ASHOKLEY.xlsx
+++ b/static/Holding_Breakup/ASHOKLEY.xlsx
@@ -34,16 +34,16 @@
     <t>Number of Institutions Holding Shares</t>
   </si>
   <si>
-    <t>46.39%</t>
-  </si>
-  <si>
-    <t>33.02%</t>
-  </si>
-  <si>
-    <t>61.59%</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>46.18%</t>
+  </si>
+  <si>
+    <t>30.27%</t>
+  </si>
+  <si>
+    <t>56.25%</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
